--- a/blanco-meta/telegrams/CommonResponse.xlsx
+++ b/blanco-meta/telegrams/CommonResponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/atr/assemulator/blanco-meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE75E03-43F0-744E-9FA8-8D0DA4B7E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AE3B35-CB0E-F245-956C-6A18F43DB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>クラス名</t>
   </si>
@@ -470,6 +470,18 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>property</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1861,10 +1873,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2657,7 +2669,7 @@
     </row>
     <row r="39" spans="1:22" s="107" customFormat="1">
       <c r="A39" s="102">
-        <f t="shared" ref="A39:A43" si="0">A38+1</f>
+        <f t="shared" ref="A39" si="0">A38+1</f>
         <v>1</v>
       </c>
       <c r="B39" s="103" t="s">
@@ -2696,10 +2708,16 @@
       <c r="U39" s="105"/>
       <c r="V39" s="106"/>
     </row>
-    <row r="40" spans="1:22" s="107" customFormat="1" ht="28" customHeight="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="79"/>
+    <row r="40" spans="1:22" s="107" customFormat="1">
+      <c r="A40" s="102">
+        <v>3</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>76</v>
+      </c>
       <c r="D40" s="79"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
@@ -2707,9 +2725,15 @@
       <c r="H40" s="79"/>
       <c r="I40" s="79"/>
       <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
+      <c r="K40" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="104" t="s">
+        <v>41</v>
+      </c>
       <c r="N40" s="108"/>
       <c r="O40" s="108"/>
       <c r="P40" s="108"/>
@@ -2718,22 +2742,34 @@
       <c r="S40" s="79"/>
       <c r="T40" s="105"/>
       <c r="U40" s="105"/>
-      <c r="V40" s="109"/>
-    </row>
-    <row r="41" spans="1:22" s="107" customFormat="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="79"/>
+      <c r="V40" s="106"/>
+    </row>
+    <row r="41" spans="1:22" s="107" customFormat="1" ht="28" customHeight="1">
+      <c r="A41" s="102">
+        <v>2</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>76</v>
+      </c>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
       <c r="G41" s="79"/>
       <c r="H41" s="79"/>
       <c r="I41" s="79"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="104" t="s">
+        <v>41</v>
+      </c>
       <c r="N41" s="108"/>
       <c r="O41" s="108"/>
       <c r="P41" s="108"/>
@@ -2754,7 +2790,7 @@
       <c r="G42" s="79"/>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
+      <c r="J42" s="110"/>
       <c r="K42" s="79"/>
       <c r="L42" s="104"/>
       <c r="M42" s="104"/>
@@ -2790,55 +2826,79 @@
       <c r="S43" s="79"/>
       <c r="T43" s="105"/>
       <c r="U43" s="105"/>
-      <c r="V43" s="106"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="16"/>
+      <c r="V43" s="109"/>
+    </row>
+    <row r="44" spans="1:22" s="107" customFormat="1">
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="106"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="21"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="16"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2859,7 +2919,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L51:P51 F61 J61 K56" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L52:P52 F62 J62 K57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2884,10 +2944,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{BEF1941C-34F2-974A-B216-D783DC8A88A3}">
       <formula1>accessScope</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L45" xr:uid="{5C3E2933-97A2-B442-8EA9-D5CD88763950}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M40:M41 L39:L46" xr:uid="{5C3E2933-97A2-B442-8EA9-D5CD88763950}">
       <formula1>others</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M39:M45" xr:uid="{56B71F73-1CCE-8640-A7A9-6DD3B5EB7425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M42:M46 M39" xr:uid="{56B71F73-1CCE-8640-A7A9-6DD3B5EB7425}">
       <formula1>theOther</formula1>
     </dataValidation>
   </dataValidations>

--- a/blanco-meta/telegrams/CommonResponse.xlsx
+++ b/blanco-meta/telegrams/CommonResponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AE3B35-CB0E-F245-956C-6A18F43DB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586C32A-7E0D-A441-855B-6377323C2F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>クラス名</t>
   </si>
@@ -481,7 +481,39 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>property</t>
+    <t>result</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理結果（success = 10/error = 20）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>errors</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorItem</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new Array&lt;ErrorItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;ErrorItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理時間（ミリ秒）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1875,8 +1907,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2470,9 +2502,7 @@
       <c r="S31" s="64"/>
     </row>
     <row r="32" spans="1:19" s="26" customFormat="1">
-      <c r="A32" s="50">
-        <v>2</v>
-      </c>
+      <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
@@ -2481,20 +2511,13 @@
       <c r="G32" s="81"/>
       <c r="H32" s="81"/>
       <c r="I32" s="81"/>
-      <c r="J32" s="66"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
+      <c r="J32" s="81"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
     </row>
     <row r="33" spans="1:22" s="26" customFormat="1">
-      <c r="A33" s="50">
-        <v>3</v>
-      </c>
+      <c r="A33" s="50"/>
       <c r="B33" s="51"/>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
@@ -2503,15 +2526,10 @@
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
-      <c r="J33" s="66"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
+      <c r="J33" s="81"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
     </row>
     <row r="34" spans="1:22" s="26" customFormat="1">
       <c r="A34" s="56"/>
@@ -2667,34 +2685,28 @@
       <c r="U38" s="11"/>
       <c r="V38" s="22"/>
     </row>
-    <row r="39" spans="1:22" s="107" customFormat="1">
+    <row r="39" spans="1:22" s="107" customFormat="1" ht="28" customHeight="1">
       <c r="A39" s="102">
-        <f t="shared" ref="A39" si="0">A38+1</f>
+        <f>A38+1</f>
         <v>1</v>
       </c>
       <c r="B39" s="103" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
-      <c r="G39" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="79" t="s">
-        <v>67</v>
-      </c>
+      <c r="G39" s="79">
+        <v>10</v>
+      </c>
+      <c r="H39" s="79"/>
       <c r="I39" s="79"/>
       <c r="J39" s="79"/>
-      <c r="K39" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="L39" s="104" t="s">
-        <v>41</v>
-      </c>
+      <c r="K39" s="79"/>
+      <c r="L39" s="104"/>
       <c r="M39" s="104" t="s">
         <v>41</v>
       </c>
@@ -2703,30 +2715,37 @@
       <c r="P39" s="108"/>
       <c r="Q39" s="108"/>
       <c r="R39" s="108"/>
-      <c r="S39" s="79"/>
+      <c r="S39" s="79" t="s">
+        <v>79</v>
+      </c>
       <c r="T39" s="105"/>
       <c r="U39" s="105"/>
-      <c r="V39" s="106"/>
+      <c r="V39" s="109"/>
     </row>
     <row r="40" spans="1:22" s="107" customFormat="1">
       <c r="A40" s="102">
-        <v>3</v>
+        <f t="shared" ref="A40" si="0">A39+1</f>
+        <v>2</v>
       </c>
       <c r="B40" s="103" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="79"/>
+        <v>81</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>82</v>
+      </c>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+      <c r="G40" s="79" t="s">
+        <v>83</v>
+      </c>
       <c r="H40" s="79"/>
       <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
+      <c r="J40" s="110"/>
       <c r="K40" s="79" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L40" s="104" t="s">
         <v>41</v>
@@ -2739,26 +2758,33 @@
       <c r="P40" s="108"/>
       <c r="Q40" s="108"/>
       <c r="R40" s="108"/>
-      <c r="S40" s="79"/>
+      <c r="S40" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="T40" s="105"/>
       <c r="U40" s="105"/>
-      <c r="V40" s="106"/>
-    </row>
-    <row r="41" spans="1:22" s="107" customFormat="1" ht="28" customHeight="1">
+      <c r="V40" s="109"/>
+    </row>
+    <row r="41" spans="1:22" s="107" customFormat="1">
       <c r="A41" s="102">
-        <v>2</v>
+        <f t="shared" ref="A39:A41" si="1">A40+1</f>
+        <v>3</v>
       </c>
       <c r="B41" s="103" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
+      <c r="G41" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>67</v>
+      </c>
       <c r="I41" s="79"/>
       <c r="J41" s="79"/>
       <c r="K41" s="79" t="s">
@@ -2778,22 +2804,34 @@
       <c r="S41" s="79"/>
       <c r="T41" s="105"/>
       <c r="U41" s="105"/>
-      <c r="V41" s="109"/>
+      <c r="V41" s="106"/>
     </row>
     <row r="42" spans="1:22" s="107" customFormat="1">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="79"/>
+      <c r="A42" s="102">
+        <v>4</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="79" t="s">
+        <v>76</v>
+      </c>
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
       <c r="G42" s="79"/>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="104" t="s">
+        <v>41</v>
+      </c>
       <c r="N42" s="108"/>
       <c r="O42" s="108"/>
       <c r="P42" s="108"/>
@@ -2902,6 +2940,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="L37:L38"/>
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="F37:F38"/>
@@ -2909,13 +2954,6 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="K37:K38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="10">
@@ -2944,10 +2982,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{BEF1941C-34F2-974A-B216-D783DC8A88A3}">
       <formula1>accessScope</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M40:M41 L39:L46" xr:uid="{5C3E2933-97A2-B442-8EA9-D5CD88763950}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L46 M42" xr:uid="{5C3E2933-97A2-B442-8EA9-D5CD88763950}">
       <formula1>others</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M42:M46 M39" xr:uid="{56B71F73-1CCE-8640-A7A9-6DD3B5EB7425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M39:M41 M43:M46" xr:uid="{56B71F73-1CCE-8640-A7A9-6DD3B5EB7425}">
       <formula1>theOther</formula1>
     </dataValidation>
   </dataValidations>

--- a/blanco-meta/telegrams/CommonResponse.xlsx
+++ b/blanco-meta/telegrams/CommonResponse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586C32A-7E0D-A441-855B-6377323C2F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3E59D-EA8E-0446-A2CF-8F888852A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="3480" windowWidth="23260" windowHeight="12580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>クラス名</t>
   </si>
@@ -473,14 +473,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>message</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -514,6 +506,22 @@
   </si>
   <si>
     <t>処理時間（ミリ秒）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>messages</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MessageItem</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new Array&lt;MessageItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;MessageItem&gt;()</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1907,8 +1915,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2691,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="103" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
@@ -2716,7 +2724,7 @@
       <c r="Q39" s="108"/>
       <c r="R39" s="108"/>
       <c r="S39" s="79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T39" s="105"/>
       <c r="U39" s="105"/>
@@ -2728,24 +2736,24 @@
         <v>2</v>
       </c>
       <c r="B40" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="79" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>82</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
       <c r="G40" s="79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H40" s="79"/>
       <c r="I40" s="79"/>
       <c r="J40" s="110"/>
       <c r="K40" s="79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L40" s="104" t="s">
         <v>41</v>
@@ -2759,7 +2767,7 @@
       <c r="Q40" s="108"/>
       <c r="R40" s="108"/>
       <c r="S40" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T40" s="105"/>
       <c r="U40" s="105"/>
@@ -2767,7 +2775,7 @@
     </row>
     <row r="41" spans="1:22" s="107" customFormat="1">
       <c r="A41" s="102">
-        <f t="shared" ref="A39:A41" si="1">A40+1</f>
+        <f t="shared" ref="A41" si="1">A40+1</f>
         <v>3</v>
       </c>
       <c r="B41" s="103" t="s">
@@ -2811,20 +2819,24 @@
         <v>4</v>
       </c>
       <c r="B42" s="103" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C42" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="79"/>
+        <v>79</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>85</v>
+      </c>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
+      <c r="G42" s="79" t="s">
+        <v>86</v>
+      </c>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
       <c r="J42" s="79"/>
       <c r="K42" s="79" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="L42" s="104" t="s">
         <v>41</v>
@@ -2940,6 +2952,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A10:B10"/>
@@ -2947,13 +2966,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="10">

--- a/blanco-meta/telegrams/CommonResponse.xlsx
+++ b/blanco-meta/telegrams/CommonResponse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3E59D-EA8E-0446-A2CF-8F888852A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A8BBB-DDE0-3C4A-A66B-0F1E97EF7400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3480" windowWidth="23260" windowHeight="12580" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>クラス名</t>
   </si>
@@ -117,11 +116,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>array</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>telegram</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ApiTelegram</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>API毎の応答電文, ApiTelegramを継承してAPI毎に独自の型を指定</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -368,10 +375,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>%</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -404,10 +407,6 @@
     <rPh sb="0" eb="3">
       <t xml:space="preserve">ソウショウガタ </t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>T : ApiTelegram</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -457,71 +456,70 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>info</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ResponseHeader</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new ResponseHeader()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>アノテーション(Kt)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>@Introspected</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>io.micronaut.core.annotation.Introspected</t>
-    <phoneticPr fontId="5"/>
+    <rPh sb="0" eb="2">
+      <t>ソウショウガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>@field:Valid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通信に関するメタ情報</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>messages</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MessageItem</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new Array&lt;MessageItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;MessageItem&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ・エラー情報</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>javax.validation.Valid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>S : ResponseHeader, T : ApiTelegram</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>処理結果（success = 10/error = 20）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>errors</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ErrorItem</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>new Array&lt;ErrorItem&gt;()</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ArrayList&lt;ErrorItem&gt;()</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>処理時間（ミリ秒）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>messages</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MessageItem</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>new Array&lt;MessageItem&gt;()</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ArrayList&lt;MessageItem&gt;()</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -575,7 +573,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,12 +606,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -663,9 +673,27 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -900,6 +928,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -959,6 +1000,47 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1145,50 +1227,115 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1196,23 +1343,60 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1222,48 +1406,6 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -1277,7 +1419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1285,113 +1427,132 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1405,102 +1566,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1913,68 +2070,65 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:K42"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="26" customWidth="1"/>
-    <col min="8" max="9" width="20.1640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="58.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28" style="1" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="7" max="10" width="20.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="31" customWidth="1"/>
+    <col min="13" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28" style="1" customWidth="1"/>
+    <col min="21" max="21" width="33.33203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19">
+    <row r="1" spans="1:20" ht="19">
       <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="71"/>
-      <c r="J5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="F5" s="80"/>
+      <c r="K5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1982,163 +2136,186 @@
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="72"/>
-      <c r="J6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="81"/>
+      <c r="K6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="73"/>
-      <c r="J7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="82"/>
+      <c r="K7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="73"/>
-      <c r="J8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-    </row>
-    <row r="9" spans="1:19" s="26" customFormat="1">
-      <c r="A9" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="75" t="s">
+      <c r="C8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="82"/>
+      <c r="K8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+    </row>
+    <row r="9" spans="1:20" s="31" customFormat="1">
+      <c r="A9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="26" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="26" customFormat="1">
-      <c r="A10" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="26" t="s">
+      <c r="J9" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="31" customFormat="1">
+      <c r="A10" s="105" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="26" customFormat="1">
-      <c r="A11" s="44" t="s">
+      <c r="B10" s="106"/>
+      <c r="C10" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="78"/>
-      <c r="K11" s="88"/>
-    </row>
-    <row r="12" spans="1:19" s="26" customFormat="1">
-      <c r="A12" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="95"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="J10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="31" customFormat="1">
+      <c r="A11" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="89"/>
+      <c r="L11" s="100"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="81"/>
+      <c r="K12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="72"/>
-      <c r="J13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="72"/>
-      <c r="J14" s="67"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="81"/>
+      <c r="K13" s="76"/>
+      <c r="L13"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+    </row>
+    <row r="14" spans="1:20" s="31" customFormat="1">
+      <c r="A14" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-    </row>
-    <row r="15" spans="1:19" s="26" customFormat="1">
-      <c r="A15" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:20" s="31" customFormat="1">
+      <c r="A15" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2151,18 +2328,15 @@
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
-    </row>
-    <row r="16" spans="1:19" s="26" customFormat="1">
-      <c r="A16" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:20" s="31" customFormat="1">
+      <c r="A16" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2175,13 +2349,16 @@
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-    </row>
-    <row r="17" spans="1:19" s="26" customFormat="1">
-      <c r="A17" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:20" s="31" customFormat="1">
+      <c r="A17" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -2195,15 +2372,14 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
-    </row>
-    <row r="18" spans="1:19" s="26" customFormat="1">
-      <c r="A18" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43" t="s">
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:20" s="31" customFormat="1">
+      <c r="A18" s="50" t="s">
         <v>41</v>
       </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -2211,798 +2387,942 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18"/>
+      <c r="K18" s="77"/>
       <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-    </row>
-    <row r="19" spans="1:19" s="26" customFormat="1">
-      <c r="A19" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+    </row>
+    <row r="19" spans="1:20" s="31" customFormat="1">
+      <c r="A19" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52" t="s">
+        <v>43</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="68"/>
-      <c r="K19"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-    </row>
-    <row r="20" spans="1:19" s="26" customFormat="1">
-      <c r="A20" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43" t="s">
-        <v>41</v>
-      </c>
+      <c r="J19"/>
+      <c r="K19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+    </row>
+    <row r="20" spans="1:20" s="31" customFormat="1">
+      <c r="A20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-    </row>
-    <row r="21" spans="1:19" s="26" customFormat="1">
-      <c r="A21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="J20"/>
+      <c r="K20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+    </row>
+    <row r="21" spans="1:20" s="31" customFormat="1">
+      <c r="A21" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="70"/>
+      <c r="C21" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-    </row>
-    <row r="22" spans="1:19" s="26" customFormat="1">
-      <c r="A22" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22"/>
+      <c r="J21"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="67"/>
-    </row>
-    <row r="24" spans="1:19" s="26" customFormat="1">
-      <c r="A24" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="J24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-    </row>
-    <row r="25" spans="1:19" s="26" customFormat="1">
-      <c r="A25" s="27" t="s">
+      <c r="J22"/>
+      <c r="K22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="76"/>
+    </row>
+    <row r="23" spans="1:20" s="31" customFormat="1">
+      <c r="A23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="K23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+    </row>
+    <row r="24" spans="1:20" s="31" customFormat="1">
+      <c r="A24" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="65"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-    </row>
-    <row r="26" spans="1:19" s="26" customFormat="1">
-      <c r="A26" s="44" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="74"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+    </row>
+    <row r="25" spans="1:20" s="31" customFormat="1">
+      <c r="A25" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="65"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-    </row>
-    <row r="27" spans="1:19" s="26" customFormat="1">
-      <c r="A27" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-    </row>
-    <row r="28" spans="1:19" s="26" customFormat="1">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-    </row>
-    <row r="29" spans="1:19" s="26" customFormat="1">
-      <c r="A29" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-    </row>
-    <row r="30" spans="1:19" s="26" customFormat="1">
-      <c r="A30" s="48" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="74"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+    </row>
+    <row r="26" spans="1:20" s="31" customFormat="1">
+      <c r="A26" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+    </row>
+    <row r="27" spans="1:20" s="31" customFormat="1">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+    </row>
+    <row r="28" spans="1:20" s="31" customFormat="1">
+      <c r="A28" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-    </row>
-    <row r="31" spans="1:19" s="26" customFormat="1">
-      <c r="A31" s="50">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+    </row>
+    <row r="29" spans="1:20" s="31" customFormat="1">
+      <c r="A29" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+    </row>
+    <row r="30" spans="1:20" s="31" customFormat="1">
+      <c r="A30" s="59">
         <v>1</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="66"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-    </row>
-    <row r="32" spans="1:19" s="26" customFormat="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:22" s="26" customFormat="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
+      <c r="B30" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="75"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+    </row>
+    <row r="31" spans="1:20" s="31" customFormat="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="75"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+    </row>
+    <row r="32" spans="1:20" s="31" customFormat="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+    </row>
+    <row r="33" spans="1:22" s="31" customFormat="1">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" s="91"/>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:22" s="26" customFormat="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-    </row>
-    <row r="35" spans="1:22" s="26" customFormat="1">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35" s="81"/>
-      <c r="L35"/>
-      <c r="M35"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="12"/>
+    </row>
+    <row r="35" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A35" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="108"/>
+      <c r="O35" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="S35" s="109"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="7"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="100"/>
-    </row>
-    <row r="37" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A37" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="111" t="s">
+      <c r="A36" s="110"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="12"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="16">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="111" t="s">
+      <c r="C37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="92"/>
+      <c r="I37" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="40"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="12"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="16">
+        <f>A37+1</f>
+        <v>2</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L37" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="N37" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="97"/>
-      <c r="P37" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="T37" s="99"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="100"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q38" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="R38" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="S38" s="98"/>
-      <c r="T38" s="99"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="22"/>
-    </row>
-    <row r="39" spans="1:22" s="107" customFormat="1" ht="28" customHeight="1">
-      <c r="A39" s="102">
-        <f>A38+1</f>
-        <v>1</v>
-      </c>
-      <c r="B39" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79">
+      <c r="G38" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="12"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="16">
+        <v>3</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="109"/>
-    </row>
-    <row r="40" spans="1:22" s="107" customFormat="1">
-      <c r="A40" s="102">
-        <f t="shared" ref="A40" si="0">A39+1</f>
-        <v>2</v>
-      </c>
-      <c r="B40" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="79" t="s">
+      <c r="D39" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79" t="s">
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="79" t="s">
+      <c r="K39" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="L40" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="109"/>
-    </row>
-    <row r="41" spans="1:22" s="107" customFormat="1">
-      <c r="A41" s="102">
-        <f t="shared" ref="A41" si="1">A40+1</f>
-        <v>3</v>
-      </c>
-      <c r="B41" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="105"/>
-      <c r="V41" s="106"/>
-    </row>
-    <row r="42" spans="1:22" s="107" customFormat="1">
-      <c r="A42" s="102">
-        <v>4</v>
-      </c>
-      <c r="B42" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="L42" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="79"/>
-      <c r="T42" s="105"/>
-      <c r="U42" s="105"/>
-      <c r="V42" s="109"/>
-    </row>
-    <row r="43" spans="1:22" s="107" customFormat="1">
-      <c r="A43" s="102"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="105"/>
-      <c r="V43" s="109"/>
-    </row>
-    <row r="44" spans="1:22" s="107" customFormat="1">
-      <c r="A44" s="102"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="104"/>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="105"/>
-      <c r="U44" s="105"/>
-      <c r="V44" s="106"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="12"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="12"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="12"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="12"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="12"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="16"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="12"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
       <c r="S46" s="19"/>
-      <c r="T46" s="20"/>
+      <c r="T46" s="19"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="21"/>
+      <c r="V46" s="12"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="12"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="12"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="12"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="12"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
+  <mergeCells count="16">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:S36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="L35:L36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L52:P52 F62 J62 K57" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M57:Q57 F67 K67 L62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{976789A4-A265-8B4A-97C0-5677F98736C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{976789A4-A265-8B4A-97C0-5677F98736C4}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{26041FED-A5B4-9542-8EB9-D571F19B7F53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{26041FED-A5B4-9542-8EB9-D571F19B7F53}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{D78653E2-1B44-BB43-9FF2-F32493B07EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{D78653E2-1B44-BB43-9FF2-F32493B07EF5}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{B6C9A617-8775-A541-B915-7FD2C7AA68B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K37:K51" xr:uid="{5C3E2933-97A2-B442-8EA9-D5CD88763950}">
+      <formula1>others</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{B6C9A617-8775-A541-B915-7FD2C7AA68B4}">
       <formula1>isData</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{953537FD-EF12-D543-B604-CC769442D9BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{953537FD-EF12-D543-B604-CC769442D9BA}">
       <formula1>isFinal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{7915C36F-6130-8946-BCF4-B57EF2B12E4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{7915C36F-6130-8946-BCF4-B57EF2B12E4B}">
       <formula1>isAbstract</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{BEF1941C-34F2-974A-B216-D783DC8A88A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{BEF1941C-34F2-974A-B216-D783DC8A88A3}">
       <formula1>accessScope</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L46 M42" xr:uid="{5C3E2933-97A2-B442-8EA9-D5CD88763950}">
-      <formula1>others</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M39:M41 M43:M46" xr:uid="{56B71F73-1CCE-8640-A7A9-6DD3B5EB7425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:L51" xr:uid="{56B71F73-1CCE-8640-A7A9-6DD3B5EB7425}">
       <formula1>theOther</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555562" footer="0.11805555555555557"/>
-  <pageSetup paperSize="9" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D &amp;T</oddFooter>
   </headerFooter>
@@ -3020,109 +3340,109 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="37" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="37" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15" max="261" width="8.83203125" style="37" customWidth="1"/>
-    <col min="262" max="16384" width="10.83203125" style="37"/>
+    <col min="1" max="3" width="8.83203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="261" width="8.83203125" style="46" customWidth="1"/>
+    <col min="262" max="16384" width="10.83203125" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19">
-      <c r="A1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="45"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="63" t="s">
+      <c r="F3" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="J3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="63" t="s">
-        <v>51</v>
+      <c r="L3" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="B4" s="84"/>
-      <c r="D4" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="B4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="86"/>
-      <c r="F5" s="40"/>
-      <c r="H5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>38</v>
+      <c r="B5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="F5" s="49"/>
+      <c r="H5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="87"/>
+      <c r="B6" s="99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/blanco-meta/telegrams/CommonResponse.xlsx
+++ b/blanco-meta/telegrams/CommonResponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A8BBB-DDE0-3C4A-A66B-0F1E97EF7400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FECF37E-2B4C-B242-94D0-907FF1796094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,15 +511,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>javax.validation.Valid</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>S : ResponseHeader, T : ApiTelegram</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jakarta.validation.Valid</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1419,24 +1419,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,24 +1447,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1478,7 +1476,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,7 +1493,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1551,43 +1549,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1623,7 +1604,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1635,10 +1616,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,17 +2053,17 @@
   </sheetPr>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="10" width="20.1640625" style="31" customWidth="1"/>
+    <col min="7" max="10" width="20.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="31" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
     <col min="13" max="17" width="9" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
@@ -2117,16 +2098,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="80"/>
-      <c r="K5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
@@ -2138,16 +2110,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="81"/>
-      <c r="K6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
@@ -2157,18 +2120,9 @@
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="82"/>
-      <c r="K7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
@@ -2178,68 +2132,59 @@
       <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="82"/>
-      <c r="K8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-    </row>
-    <row r="9" spans="1:20" s="31" customFormat="1">
-      <c r="A9" s="53" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="31" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="31" customFormat="1">
-      <c r="A10" s="105" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="31" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="31" customFormat="1">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:20">
+      <c r="A11" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="89"/>
-      <c r="L11" s="100"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="74"/>
+      <c r="L11" s="83"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
@@ -2251,16 +2196,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="81"/>
-      <c r="K12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
@@ -2272,24 +2208,15 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="81"/>
-      <c r="K13" s="76"/>
+      <c r="F13" s="74"/>
       <c r="L13"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-    </row>
-    <row r="14" spans="1:20" s="31" customFormat="1">
-      <c r="A14" s="50" t="s">
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2305,12 +2232,12 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:20" s="31" customFormat="1">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
@@ -2330,12 +2257,12 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:20" s="31" customFormat="1">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -2351,12 +2278,12 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:20" s="31" customFormat="1">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D17"/>
@@ -2374,12 +2301,12 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:20" s="31" customFormat="1">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:19">
+      <c r="A18" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -2387,23 +2314,16 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18" s="77"/>
+      <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-    </row>
-    <row r="19" spans="1:20" s="31" customFormat="1">
-      <c r="A19" s="50" t="s">
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D19"/>
@@ -2413,22 +2333,15 @@
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
-      <c r="K19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-    </row>
-    <row r="20" spans="1:20" s="31" customFormat="1">
-      <c r="A20" s="50" t="s">
+      <c r="K19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -2436,22 +2349,15 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-    </row>
-    <row r="21" spans="1:20" s="31" customFormat="1">
-      <c r="A21" s="69" t="s">
+      <c r="K20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="52" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D21" t="s">
@@ -2462,128 +2368,92 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="K21"/>
+      <c r="L21" s="70"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="76"/>
-    </row>
-    <row r="23" spans="1:20" s="31" customFormat="1">
-      <c r="A23" s="28" t="s">
+      <c r="K22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="K23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-    </row>
-    <row r="24" spans="1:20" s="31" customFormat="1">
-      <c r="A24" s="32" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="74"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-    </row>
-    <row r="25" spans="1:20" s="31" customFormat="1">
-      <c r="A25" s="53" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="74"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-    </row>
-    <row r="26" spans="1:20" s="31" customFormat="1">
-      <c r="A26" s="53" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-    </row>
-    <row r="27" spans="1:20" s="31" customFormat="1">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2594,132 +2464,96 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-    </row>
-    <row r="28" spans="1:20" s="31" customFormat="1">
-      <c r="A28" s="28" t="s">
+      <c r="K27"/>
+      <c r="L27" s="71"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-    </row>
-    <row r="29" spans="1:20" s="31" customFormat="1">
-      <c r="A29" s="57" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="L28" s="71"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-    </row>
-    <row r="30" spans="1:20" s="31" customFormat="1">
-      <c r="A30" s="59">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="70"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="57">
         <v>1</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="75"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-    </row>
-    <row r="31" spans="1:20" s="31" customFormat="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="75"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-    </row>
-    <row r="32" spans="1:20" s="31" customFormat="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-    </row>
-    <row r="33" spans="1:22" s="31" customFormat="1">
+      <c r="B30" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="70"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2731,7 +2565,7 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33" s="91"/>
+      <c r="L33" s="71"/>
       <c r="M33"/>
       <c r="N33"/>
     </row>
@@ -2739,534 +2573,534 @@
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="12"/>
+      <c r="V34" s="11"/>
     </row>
     <row r="35" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="111" t="s">
+      <c r="E35" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="118" t="s">
+      <c r="G35" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="118" t="s">
+      <c r="H35" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="117" t="s">
+      <c r="I35" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="115" t="s">
+      <c r="J35" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="114" t="s">
+      <c r="K35" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="119" t="s">
+      <c r="L35" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="M35" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="108"/>
-      <c r="O35" s="107" t="s">
+      <c r="N35" s="91"/>
+      <c r="O35" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="38" t="s">
+      <c r="P35" s="91"/>
+      <c r="Q35" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R35" s="109" t="s">
+      <c r="R35" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="109"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="14"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="13"/>
       <c r="V35" s="7"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="110"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="39" t="s">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="39" t="s">
+      <c r="N36" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O36" s="39" t="s">
+      <c r="O36" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="P36" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="39" t="s">
+      <c r="Q36" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="12"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="11"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>1</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="83" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="92" t="s">
+      <c r="G37" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="92"/>
-      <c r="I37" s="104" t="s">
+      <c r="H37" s="76"/>
+      <c r="I37" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="K37" s="84" t="s">
+      <c r="J37" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="101" t="s">
+      <c r="L37" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="40"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="93" t="s">
+      <c r="M37" s="38"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="12"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="11"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <f>A37+1</f>
         <v>2</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="93" t="s">
+      <c r="G38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="K38" s="85" t="s">
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="101" t="s">
+      <c r="L38" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18" t="s">
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="12"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="11"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>3</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93" t="s">
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="K39" s="85" t="s">
+      <c r="K39" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="101" t="s">
+      <c r="L39" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18" t="s">
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="12"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="11"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="12"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="11"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="12"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="12"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="12"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="12"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="12"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="12"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="12"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="11"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="12"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="11"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="101"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="12"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="11"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="12"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="11"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="12"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3342,107 +3176,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="46" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="261" width="8.83203125" style="46" customWidth="1"/>
-    <col min="262" max="16384" width="10.83203125" style="46"/>
+    <col min="1" max="3" width="8.83203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="44" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="261" width="8.83203125" style="44" customWidth="1"/>
+    <col min="262" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="45"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="72" t="s">
+      <c r="N3" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="P3" s="69" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="B4" s="96"/>
-      <c r="D4" s="97" t="s">
+      <c r="B4" s="79"/>
+      <c r="D4" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="F5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="81"/>
+      <c r="F5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="47" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="99"/>
+      <c r="B6" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
